--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P21_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P21_trail15 Features.xlsx
@@ -4487,7 +4487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4498,29 +4498,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4541,115 +4539,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4666,72 +4654,66 @@
         <v>6.419176797277981e-09</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.740460152457044</v>
+        <v>4.475225222781824e-08</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>15.72266219244482</v>
+        <v>2.004307804653139e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.475225222781824e-08</v>
+        <v>-0.1015841101633379</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.004307804653139e-07</v>
+        <v>0.3655424292168054</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1015841101633379</v>
+        <v>0.1436056327887657</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3655424292168054</v>
+        <v>1.941364868948124</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1436056327887657</v>
+        <v>3.951757192532611</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.95374105885865</v>
+        <v>10.20346248643414</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.951757192532611</v>
+        <v>8.338593356336138e-20</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>10.20346248643414</v>
+        <v>329816249037.1487</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>8.338593356336138e-20</v>
+        <v>3.68255501942333e-10</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>329816249037.1487</v>
+        <v>9070.618298444291</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.68255501942333e-10</v>
+        <v>3.26725106670334e-06</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>9070.618298444291</v>
+        <v>7.331236936284224</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>3.26725106670334e-06</v>
+        <v>1.906711374547921</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.331236936284224</v>
+        <v>0.0001756050574879655</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.906711374547921</v>
+        <v>8.917788455371502</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0001756050574879655</v>
+        <v>0.9642045137848182</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>8.917788455371502</v>
+        <v>0.7671215169968952</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9642045137848182</v>
+        <v>671</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.7671215169968952</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>671</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>20.82297777301179</v>
       </c>
     </row>
@@ -4746,72 +4728,66 @@
         <v>4.580484382192964e-09</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.31527450171551</v>
+        <v>3.202208565611973e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>13.63581856222616</v>
+        <v>1.998921658311622e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.202208565611973e-08</v>
+        <v>-0.09546172547813656</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.998921658311622e-07</v>
+        <v>0.3789566180058281</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.09546172547813656</v>
+        <v>0.1523535371084783</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3789566180058281</v>
+        <v>1.93378039514055</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1523535371084783</v>
+        <v>4.059507594851694</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.954803180071238</v>
+        <v>9.597895681288156</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>4.059507594851694</v>
+        <v>7.468354530377043e-20</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>9.597895681288156</v>
+        <v>362769834108.91</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>7.468354530377043e-20</v>
+        <v>3.339492041045954e-10</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>362769834108.91</v>
+        <v>9828.500384541379</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.339492041045954e-10</v>
+        <v>3.096940297785654e-06</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>9828.500384541379</v>
+        <v>7.398419067040801</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>3.096940297785654e-06</v>
+        <v>1.874096781377214</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.398419067040801</v>
+        <v>0.0001695159968332334</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.874096781377214</v>
+        <v>8.852836839006825</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0001695159968332334</v>
+        <v>0.9643895586222208</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>8.852836839006825</v>
+        <v>0.70756855043671</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9643895586222208</v>
+        <v>686</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.70756855043671</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>686</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>20.09349568333947</v>
       </c>
     </row>
@@ -4826,72 +4802,66 @@
         <v>3.358172923540751e-09</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.434068779131042</v>
+        <v>2.258402593658556e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>8.792550445701657</v>
+        <v>1.995393138725041e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.258402593658556e-08</v>
+        <v>-0.08258318639420333</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.995393138725041e-07</v>
+        <v>0.3800315093813158</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.08258318639420333</v>
+        <v>0.150865720748874</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3800315093813158</v>
+        <v>1.933908448783718</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.150865720748874</v>
+        <v>3.904537033040185</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.954837081961809</v>
+        <v>9.849374388742486</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.904537033040185</v>
+        <v>7.091852346829506e-20</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>9.849374388742486</v>
+        <v>374783041138.4789</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.091852346829506e-20</v>
+        <v>3.225341161130331e-10</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>374783041138.4789</v>
+        <v>9961.380899360951</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.225341161130331e-10</v>
+        <v>2.815395944479023e-06</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>9961.380899360951</v>
+        <v>6.18423369039821</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>2.815395944479023e-06</v>
+        <v>2.121139922500707</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>6.18423369039821</v>
+        <v>0.0001076741037361034</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>2.121139922500707</v>
+        <v>8.819079166295138</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0001076741037361034</v>
+        <v>0.9631624264642</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>8.819079166295138</v>
+        <v>0.7012928368332306</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9631624264642</v>
+        <v>692</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.7012928368332306</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>692</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>19.91104058498752</v>
       </c>
     </row>
@@ -4906,72 +4876,66 @@
         <v>2.643924631639459e-09</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.278670799840483</v>
+        <v>1.559988492764667e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2.626021889076879</v>
+        <v>1.993250344957045e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.559988492764667e-08</v>
+        <v>-0.05985104385971157</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.993250344957045e-07</v>
+        <v>0.3505675680875739</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.05985104385971157</v>
+        <v>0.1261571309033189</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3505675680875739</v>
+        <v>1.929221602896781</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1261571309033189</v>
+        <v>3.991613432845296</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.951942084739982</v>
+        <v>10.02301541175922</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.991613432845296</v>
+        <v>6.848259056394322e-20</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>10.02301541175922</v>
+        <v>381832401670.623</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>6.848259056394322e-20</v>
+        <v>3.157885555711377e-10</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>381832401670.623</v>
+        <v>9984.486607297813</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.157885555711377e-10</v>
+        <v>2.663637788936665e-06</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>9984.486607297813</v>
+        <v>5.539182746050612</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>2.663637788936665e-06</v>
+        <v>2.323109998093401</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>5.539182746050612</v>
+        <v>8.172718763897249e-05</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>2.323109998093401</v>
+        <v>8.840124187994499</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>8.172718763897249e-05</v>
+        <v>0.9629374576890528</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>8.840124187994499</v>
+        <v>0.6881135100257594</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9629374576890528</v>
+        <v>701</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.6881135100257594</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>701</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>20.40637867948552</v>
       </c>
     </row>
@@ -4986,72 +4950,66 @@
         <v>2.31496535376051e-09</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.5128702858134041</v>
+        <v>1.056137464932052e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.8591512965228278</v>
+        <v>1.992126529771886e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.056137464932052e-08</v>
+        <v>-0.03095038778987442</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.992126529771886e-07</v>
+        <v>0.2902802658822843</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.03095038778987442</v>
+        <v>0.08499951614768128</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2902802658822843</v>
+        <v>1.925402408947329</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.08499951614768128</v>
+        <v>3.880795749975021</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.954787513196953</v>
+        <v>9.961480165230668</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.880795749975021</v>
+        <v>6.933128150606265e-20</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>9.961480165230668</v>
+        <v>376788176203.6939</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6.933128150606265e-20</v>
+        <v>3.197485898034558e-10</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>376788176203.6939</v>
+        <v>9842.91556452314</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.197485898034558e-10</v>
+        <v>2.607640750490351e-06</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>9842.91556452314</v>
+        <v>5.99285659806023</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>2.607640750490351e-06</v>
+        <v>2.321312689749847</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>5.99285659806023</v>
+        <v>9.365167096890027e-05</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>2.321312689749847</v>
+        <v>8.909698122892188</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>9.365167096890027e-05</v>
+        <v>0.9635059210919106</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>8.909698122892188</v>
+        <v>0.6763531132740708</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9635059210919106</v>
+        <v>693</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.6763531132740708</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>693</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>20.96325324032799</v>
       </c>
     </row>
@@ -5066,72 +5024,66 @@
         <v>2.225005472807771e-09</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.3259432666258092</v>
+        <v>6.918646853546416e-09</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.501120203718213</v>
+        <v>1.991744511779483e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.918646853546416e-09</v>
+        <v>-0.003827497037419693</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.991744511779483e-07</v>
+        <v>0.2170720894596549</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.003827497037419693</v>
+        <v>0.04701020564642845</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2170720894596549</v>
+        <v>1.911611080665682</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04701020564642845</v>
+        <v>4.086979030100897</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.946512531596267</v>
+        <v>10.03494756428768</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>4.086979030100897</v>
+        <v>6.831982760101519e-20</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>10.03494756428768</v>
+        <v>377164667236.0044</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>6.831982760101519e-20</v>
+        <v>3.177247288782365e-10</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>377164667236.0044</v>
+        <v>9718.713157647433</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.177247288782365e-10</v>
+        <v>2.63970318821079e-06</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>9718.713157647433</v>
+        <v>7.289394194291132</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>2.63970318821079e-06</v>
+        <v>1.977318884581938</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.289394194291132</v>
+        <v>0.0001402613356062983</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.977318884581938</v>
+        <v>8.968495608546474</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0001402613356062983</v>
+        <v>0.9633779175187998</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>8.968495608546474</v>
+        <v>0.6725856449444461</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9633779175187998</v>
+        <v>687</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.6725856449444461</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>687</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>20.67627505192929</v>
       </c>
     </row>
@@ -5146,72 +5098,66 @@
         <v>2.248082887912268e-09</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.3413944564105339</v>
+        <v>6.557592886337659e-09</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.476891165217358</v>
+        <v>1.991902434222087e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>6.557592886337659e-09</v>
+        <v>0.01656994125039519</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.991902434222087e-07</v>
+        <v>0.1526549026365874</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.01656994125039519</v>
+        <v>0.02351737571292767</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1526549026365874</v>
+        <v>1.911173196535042</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02351737571292767</v>
+        <v>4.124948853732219</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.948981650961142</v>
+        <v>9.941192982514444</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>4.124948853732219</v>
+        <v>6.961454158383925e-20</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>9.941192982514444</v>
+        <v>373207659397.9723</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>6.961454158383925e-20</v>
+        <v>3.209845428056607e-10</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>373207659397.9723</v>
+        <v>9696.188818857239</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.209845428056607e-10</v>
+        <v>2.57858364707526e-06</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>9696.188818857239</v>
+        <v>7.426797375189544</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>2.57858364707526e-06</v>
+        <v>1.884939394051523</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.426797375189544</v>
+        <v>0.000142227761440032</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.884939394051523</v>
+        <v>8.938878839879203</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.000142227761440032</v>
+        <v>0.9626308823186139</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>8.938878839879203</v>
+        <v>0.6856042106895515</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9626308823186139</v>
+        <v>689</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.6856042106895515</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>689</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>19.879945170554</v>
       </c>
     </row>
@@ -5226,72 +5172,66 @@
         <v>2.307971243780915e-09</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.3434244785968602</v>
+        <v>6.70596069867753e-09</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.482070294672038</v>
+        <v>1.992448640242254e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>6.70596069867753e-09</v>
+        <v>0.03028024112705243</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.992448640242254e-07</v>
+        <v>0.1055883719410253</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.03028024112705243</v>
+        <v>0.01203892061726887</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1055883719410253</v>
+        <v>1.906327483886778</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01203892061726887</v>
+        <v>4.021268232128974</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.945622451045425</v>
+        <v>9.630776567049388</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>4.021268232128974</v>
+        <v>7.417445465870502e-20</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>9.630776567049388</v>
+        <v>362429097538.7023</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>7.417445465870502e-20</v>
+        <v>3.310244731364868e-10</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>362429097538.7023</v>
+        <v>9743.174420616717</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.310244731364868e-10</v>
+        <v>2.476928774329478e-06</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>9743.174420616717</v>
+        <v>6.221562883166335</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>2.476928774329478e-06</v>
+        <v>2.051639559531685</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>6.221562883166335</v>
+        <v>9.587657435247719e-05</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>2.051639559531685</v>
+        <v>8.890346686936091</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>9.587657435247719e-05</v>
+        <v>0.9628917595877744</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>8.890346686936091</v>
+        <v>0.6942750154897785</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9628917595877744</v>
+        <v>681</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.6942750154897785</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>681</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>19.54775062057107</v>
       </c>
     </row>
@@ -5306,72 +5246,66 @@
         <v>2.370814076317282e-09</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.3134822677685302</v>
+        <v>6.863691498595163e-09</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.505962029567544</v>
+        <v>1.993269749809694e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6.863691498595163e-09</v>
+        <v>0.03912700764954788</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.993269749809694e-07</v>
+        <v>0.07440465536016964</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.03912700764954788</v>
+        <v>0.007056045596573635</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.07440465536016964</v>
+        <v>1.906187293513038</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.007056045596573635</v>
+        <v>4.251336426387033</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.948699018816665</v>
+        <v>9.382281396642988</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>4.251336426387033</v>
+        <v>7.815559399763019e-20</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>9.382281396642988</v>
+        <v>353092876324.7462</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>7.815559399763019e-20</v>
+        <v>3.410377800374593e-10</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>353092876324.7462</v>
+        <v>9744.015802477943</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.410377800374593e-10</v>
+        <v>2.530945186160548e-06</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>9744.015802477943</v>
+        <v>5.801102177260962</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>2.530945186160548e-06</v>
+        <v>2.166389910566113</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>5.801102177260962</v>
+        <v>8.517335791972163e-05</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>2.166389910566113</v>
+        <v>8.879264043239013</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>8.517335791972163e-05</v>
+        <v>0.9640335714858068</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>8.879264043239013</v>
+        <v>0.698992377216699</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9640335714858068</v>
+        <v>681</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.698992377216699</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>681</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>19.67091040163532</v>
       </c>
     </row>
@@ -5386,72 +5320,66 @@
         <v>2.425375544484217e-09</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.2717958806395538</v>
+        <v>7.014284449293523e-09</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.518559016134041</v>
+        <v>1.994279766954628e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>7.014284449293523e-09</v>
+        <v>0.04452819164582254</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.994279766954628e-07</v>
+        <v>0.05607073081733089</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.04452819164582254</v>
+        <v>0.005123129361342987</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.05607073081733089</v>
+        <v>1.907044147064652</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.005123129361342987</v>
+        <v>4.003101462619636</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.947060879495981</v>
+        <v>9.325013296973928</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>4.003101462619636</v>
+        <v>7.911850224935676e-20</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>9.325013296973928</v>
+        <v>350615713339.8107</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>7.911850224935676e-20</v>
+        <v>3.428915217669571e-10</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>350615713339.8107</v>
+        <v>9726.146541683722</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.428915217669571e-10</v>
+        <v>2.618639856910632e-06</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>9726.146541683722</v>
+        <v>6.600962749391564</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>2.618639856910632e-06</v>
+        <v>2.13781075008961</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>6.600962749391564</v>
+        <v>0.0001141012330340711</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>2.13781075008961</v>
+        <v>8.903085880487318</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0001141012330340711</v>
+        <v>0.9632715315635065</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>8.903085880487318</v>
+        <v>0.7072108165817149</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9632715315635065</v>
+        <v>678</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.7072108165817149</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>678</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>20.21927919122907</v>
       </c>
     </row>
@@ -5466,72 +5394,66 @@
         <v>2.4704924327303e-09</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.2302338685041998</v>
+        <v>7.159088396636856e-09</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.520815651558277</v>
+        <v>1.995410318828486e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>7.159088396636856e-09</v>
+        <v>0.04741014832925147</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.995410318828486e-07</v>
+        <v>0.04777785449173269</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.04741014832925147</v>
+        <v>0.004529896785666509</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.04777785449173269</v>
+        <v>1.906525511211424</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.004529896785666509</v>
+        <v>3.640716736361857</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.946449699678712</v>
+        <v>9.321885979029283</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>3.640716736361857</v>
+        <v>7.917159670175433e-20</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>9.321885979029283</v>
+        <v>348636022943.1881</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>7.917159670175433e-20</v>
+        <v>3.446718987910991e-10</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>348636022943.1881</v>
+        <v>9623.076120432001</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.446718987910991e-10</v>
+        <v>2.790228717445834e-06</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>9623.076120432001</v>
+        <v>7.850460491128893</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>2.790228717445834e-06</v>
+        <v>1.859433882111964</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.850460491128893</v>
+        <v>0.0001719610422789596</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.859433882111964</v>
+        <v>8.921725827639923</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0001719610422789596</v>
+        <v>0.9645532957007322</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>8.921725827639923</v>
+        <v>0.7193675331183396</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9645532957007322</v>
+        <v>670</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.7193675331183396</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>670</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>20.72831022233937</v>
       </c>
     </row>
@@ -5546,72 +5468,66 @@
         <v>2.509180449256765e-09</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.1910602528992099</v>
+        <v>7.288546397552771e-09</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.517847315387836</v>
+        <v>1.996605535702554e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>7.288546397552771e-09</v>
+        <v>0.04828363469923794</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.996605535702554e-07</v>
+        <v>0.04537444568932467</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.04828363469923794</v>
+        <v>0.004390314635219422</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.04537444568932467</v>
+        <v>1.915311884689727</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.004390314635219422</v>
+        <v>4.022508988936718</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.954478452195777</v>
+        <v>9.132774775275781</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>4.022508988936718</v>
+        <v>8.248433580215088e-20</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>9.132774775275781</v>
+        <v>335104615053.0241</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>8.248433580215088e-20</v>
+        <v>3.592634559363095e-10</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>335104615053.0241</v>
+        <v>9262.586987250081</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.592634559363095e-10</v>
+        <v>2.928914193919106e-06</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>9262.586987250081</v>
+        <v>7.773815620710454</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>2.928914193919106e-06</v>
+        <v>1.763604335425876</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.773815620710454</v>
+        <v>0.0001770007556027244</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.763604335425876</v>
+        <v>8.908397658363445</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0001770007556027244</v>
+        <v>0.964040100577459</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>8.908397658363445</v>
+        <v>0.7005949179126544</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.964040100577459</v>
+        <v>670</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.7005949179126544</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>670</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>20.71046965918992</v>
       </c>
     </row>
@@ -5626,72 +5542,66 @@
         <v>2.544318150147342e-09</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.152262331085686</v>
+        <v>7.388684120243559e-09</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.512386572273</v>
+        <v>1.997824629448827e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>7.388684120243559e-09</v>
+        <v>0.0481012015865011</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.997824629448827e-07</v>
+        <v>0.04448776656096821</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.0481012015865011</v>
+        <v>0.004293075968447779</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.04448776656096821</v>
+        <v>1.91308516368102</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.004293075968447779</v>
+        <v>4.22967821462764</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.955158037205154</v>
+        <v>8.809241675474812</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>4.22967821462764</v>
+        <v>7.918628007086985e-20</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>8.809241675474812</v>
+        <v>344404663916.6884</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>7.918628007086985e-20</v>
+        <v>3.493275799113178e-10</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>344404663916.6884</v>
+        <v>9392.646760654434</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.493275799113178e-10</v>
+        <v>3.146902454348076e-06</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>9392.646760654434</v>
+        <v>6.850852902205788</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>3.146902454348076e-06</v>
+        <v>1.737468966545013</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>6.850852902205788</v>
+        <v>0.0001476973035039497</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.737468966545013</v>
+        <v>8.871745205438213</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0001476973035039497</v>
+        <v>0.9642046950017554</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>8.871745205438213</v>
+        <v>0.65850003146168</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9642046950017554</v>
+        <v>641</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.65850003146168</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>641</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>20.25957280520443</v>
       </c>
     </row>
@@ -5706,72 +5616,66 @@
         <v>2.576790024324941e-09</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.1121634504181862</v>
+        <v>7.461901175779985e-09</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.505483011005666</v>
+        <v>1.999048024544722e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>7.461901175779985e-09</v>
+        <v>0.04735624016764722</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.999048024544722e-07</v>
+        <v>0.0439649860938589</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.04735624016764722</v>
+        <v>0.00417566814725381</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.0439649860938589</v>
+        <v>1.90966165536962</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.00417566814725381</v>
+        <v>3.988355962124643</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.953547198474104</v>
+        <v>7.735136561982623</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>3.988355962124643</v>
+        <v>7.676708629525853e-20</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>7.735136561982623</v>
+        <v>338176772281.3625</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>7.676708629525853e-20</v>
+        <v>3.542315220828172e-10</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>338176772281.3625</v>
+        <v>8779.354923620271</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.542315220828172e-10</v>
+        <v>3.633892396718119e-06</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>8779.354923620271</v>
+        <v>8.143734155655256</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>3.633892396718119e-06</v>
+        <v>1.568594382788809</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.143734155655256</v>
+        <v>0.0002410012191033401</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.568594382788809</v>
+        <v>8.813558323604232</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0002410012191033401</v>
+        <v>0.962980273352293</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>8.813558323604232</v>
+        <v>0.6352935845789951</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.962980273352293</v>
+        <v>629</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.6352935845789951</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>629</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>19.80938829274172</v>
       </c>
     </row>
@@ -5786,72 +5690,66 @@
         <v>2.606573876051741e-09</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.06987262070104268</v>
+        <v>7.508364031697866e-09</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.497354777817223</v>
+        <v>2.000265946077454e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>7.508364031697866e-09</v>
+        <v>0.04671753071908331</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.000265946077454e-07</v>
+        <v>0.04349412073249909</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.04671753071908331</v>
+        <v>0.004074538597756409</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.04349412073249909</v>
+        <v>1.905396626992401</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.004074538597756409</v>
+        <v>4.597090527592067</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.949254342772776</v>
+        <v>7.697709712112696</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>4.597090527592067</v>
+        <v>7.751539587273802e-20</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>7.697709712112696</v>
+        <v>332162740320.3133</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>7.751539587273802e-20</v>
+        <v>3.595798712295283e-10</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>332162740320.3133</v>
+        <v>8552.435328181096</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.595798712295283e-10</v>
+        <v>3.966791507041183e-06</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>8552.435328181096</v>
+        <v>9.09514653778233</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>3.966791507041183e-06</v>
+        <v>1.36678830516576</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.09514653778233</v>
+        <v>0.0003281396994969726</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.36678830516576</v>
+        <v>8.732899686696216</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0003281396994969726</v>
+        <v>0.9631634632520019</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>8.732899686696216</v>
+        <v>0.6306842800300019</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9631634632520019</v>
+        <v>602</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.6306842800300019</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>602</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>19.56405480377511</v>
       </c>
     </row>
@@ -5866,72 +5764,66 @@
         <v>2.631519496257366e-09</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.02575353869706952</v>
+        <v>7.532542945651403e-09</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.48748782505637</v>
+        <v>2.001487844282169e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>7.532542945651403e-09</v>
+        <v>0.04662247120391887</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.001487844282169e-07</v>
+        <v>0.04268682846799776</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.04662247120391887</v>
+        <v>0.003996074510373654</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.04268682846799776</v>
+        <v>1.896970894032557</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.003996074510373654</v>
+        <v>4.214178036197912</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.943961734747366</v>
+        <v>7.670703989959986</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>4.214178036197912</v>
+        <v>7.806216295421995e-20</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>7.670703989959986</v>
+        <v>328771537464.8911</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>7.806216295421995e-20</v>
+        <v>3.639351541068283e-10</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>328771537464.8911</v>
+        <v>8437.795698786307</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.639351541068283e-10</v>
+        <v>4.676798640790477e-06</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>8437.795698786307</v>
+        <v>8.584935863175723</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>4.676798640790477e-06</v>
+        <v>1.347873519474388</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.584935863175723</v>
+        <v>0.0003446853154949057</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.347873519474388</v>
+        <v>8.664876481621111</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0003446853154949057</v>
+        <v>0.9658194356200875</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>8.664876481621111</v>
+        <v>0.619183507171815</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9658194356200875</v>
+        <v>589</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.619183507171815</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>589</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>19.27798541668529</v>
       </c>
     </row>
@@ -6308,7 +6200,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.302375724820288</v>
+        <v>1.306838107517816</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.930093929858981</v>
@@ -6397,7 +6289,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.298709483878806</v>
+        <v>1.300070813864331</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.852692334340818</v>
@@ -6486,7 +6378,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.315493158440444</v>
+        <v>1.319875250651742</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.868760656070631</v>
@@ -6575,7 +6467,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.300445642782243</v>
+        <v>1.307903117042631</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.897290801978721</v>
@@ -6664,7 +6556,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.287049969081876</v>
+        <v>1.283205141127534</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.935098058328856</v>
@@ -6753,7 +6645,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.309356144014141</v>
+        <v>1.316763258710438</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.021861336211825</v>
@@ -6842,7 +6734,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.322361251304774</v>
+        <v>1.332619605853411</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.167382387910688</v>
@@ -6931,7 +6823,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.319572929187449</v>
+        <v>1.330095051626163</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.131349270134285</v>
@@ -7020,7 +6912,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.326084498751521</v>
+        <v>1.335967127080235</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.11447797974016</v>
@@ -7109,7 +7001,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.30936707477765</v>
+        <v>1.316284542175297</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.183318825192638</v>
@@ -7198,7 +7090,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.29749380012674</v>
+        <v>1.307717278466066</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.131114451207466</v>
@@ -7287,7 +7179,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.294811695723687</v>
+        <v>1.306231299654306</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.131813804603615</v>
@@ -7376,7 +7268,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.301760771246218</v>
+        <v>1.313098462315705</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.182056103000416</v>
@@ -7465,7 +7357,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.313748099964054</v>
+        <v>1.316643213534255</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.971703845156129</v>
@@ -7554,7 +7446,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.328819836088306</v>
+        <v>1.337846809818592</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.045470259703699</v>
@@ -7643,7 +7535,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.326525905974468</v>
+        <v>1.3298407680565</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.029448805302654</v>
@@ -7732,7 +7624,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.32072131497753</v>
+        <v>1.325889507156482</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.089870094608623</v>
@@ -7821,7 +7713,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.32014540011541</v>
+        <v>1.322804250556485</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.983682906933068</v>
@@ -7910,7 +7802,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.339102234189781</v>
+        <v>1.341160633814128</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.001050670726717</v>
@@ -7999,7 +7891,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.405228757666849</v>
+        <v>1.405590470642772</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.018333023839607</v>
@@ -8088,7 +7980,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.444337727074763</v>
+        <v>1.444945801150289</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.470710659512201</v>
@@ -8177,7 +8069,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.440589503764225</v>
+        <v>1.434501300900945</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.344450675959984</v>
@@ -8266,7 +8158,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.428815998406955</v>
+        <v>1.420201713409107</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.442169886106022</v>
@@ -8355,7 +8247,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.412569869030726</v>
+        <v>1.403552674728924</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.332568156724496</v>
@@ -8444,7 +8336,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.40750172033416</v>
+        <v>1.404892455307955</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.241846847076558</v>
@@ -8533,7 +8425,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.411850030721111</v>
+        <v>1.406940141984671</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.2912672023408</v>
@@ -8622,7 +8514,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.425477954039087</v>
+        <v>1.420267363545676</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.265684629162237</v>
@@ -8711,7 +8603,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.431116731101513</v>
+        <v>1.422528024880372</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.402460179517165</v>
@@ -8800,7 +8692,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.451509412092846</v>
+        <v>1.444044473680478</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.367932430562441</v>
@@ -8889,7 +8781,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.441173928250315</v>
+        <v>1.430605570596756</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.238496917342001</v>
@@ -8978,7 +8870,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.455141224121995</v>
+        <v>1.445566677405399</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.266704456653615</v>
@@ -9067,7 +8959,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.472517165961429</v>
+        <v>1.461151434932548</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.176500718793572</v>
@@ -9156,7 +9048,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.503495359963616</v>
+        <v>1.488408263230738</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.19360493573269</v>
@@ -9245,7 +9137,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.492468128530172</v>
+        <v>1.479396316542435</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.28869964242443</v>
@@ -9334,7 +9226,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.508110451608561</v>
+        <v>1.494654665371962</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.292481708442609</v>
@@ -9423,7 +9315,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.520776971903945</v>
+        <v>1.506141297333448</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.319404339465018</v>
@@ -9512,7 +9404,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.498264648190381</v>
+        <v>1.488507599211747</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.420652370904229</v>
@@ -9601,7 +9493,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.487581473332699</v>
+        <v>1.479811796354478</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.198244518909044</v>
@@ -9690,7 +9582,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.463183630363792</v>
+        <v>1.450201590838363</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.93561586522822</v>
@@ -9779,7 +9671,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.442989011328063</v>
+        <v>1.437429329020513</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.051925752056999</v>
@@ -9868,7 +9760,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.444373617750136</v>
+        <v>1.441002824528782</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.049848473318769</v>
@@ -9957,7 +9849,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.433559750558845</v>
+        <v>1.4296994646138</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.070253257606119</v>
@@ -10046,7 +9938,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.413151344436678</v>
+        <v>1.411898756801505</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.05752102197955</v>
@@ -10135,7 +10027,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.339183405062083</v>
+        <v>1.338913959056017</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.121072630600396</v>
@@ -10224,7 +10116,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.343581675935593</v>
+        <v>1.343788738937428</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.081538761301213</v>
@@ -10313,7 +10205,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.33519128106054</v>
+        <v>1.334979158324495</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.108316829723074</v>
@@ -10402,7 +10294,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.334012691217803</v>
+        <v>1.335112374551157</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.127126304315668</v>
@@ -10491,7 +10383,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.332282729620046</v>
+        <v>1.334150950772439</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.047836754663066</v>
@@ -10580,7 +10472,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.329162442437699</v>
+        <v>1.332014605755501</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.076768689610148</v>
@@ -10669,7 +10561,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.335064537372673</v>
+        <v>1.338440470100389</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.093398553877383</v>
@@ -10758,7 +10650,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.340770848578899</v>
+        <v>1.34371194361127</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.080440109465373</v>
@@ -10847,7 +10739,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.347010705087021</v>
+        <v>1.349636448938673</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.125721177395264</v>
@@ -10936,7 +10828,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.361038178172966</v>
+        <v>1.364346464935623</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.118708310024661</v>
@@ -11025,7 +10917,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.410762060987038</v>
+        <v>1.413583481711583</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.870654283355072</v>
@@ -11114,7 +11006,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.448983876978847</v>
+        <v>1.447787289412495</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.986117765244626</v>
@@ -11203,7 +11095,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.447384162834685</v>
+        <v>1.443696402199633</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.991937158443634</v>
@@ -11292,7 +11184,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.452536038419749</v>
+        <v>1.44631176534937</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.972337699907482</v>
@@ -11381,7 +11273,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.485491736688908</v>
+        <v>1.473665879121599</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.045697659072364</v>
@@ -11470,7 +11362,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.616464364901896</v>
+        <v>1.591630909123741</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.371312370655238</v>
@@ -11559,7 +11451,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.625122186517527</v>
+        <v>1.595707396604094</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.490413990816518</v>
@@ -11648,7 +11540,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.628171736936875</v>
+        <v>1.605151512488624</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.091064547998934</v>
@@ -11934,7 +11826,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.202898727460001</v>
+        <v>1.209241481923793</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.847849393611865</v>
@@ -12023,7 +11915,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.207126243619454</v>
+        <v>1.212492181960796</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.841653984029802</v>
@@ -12112,7 +12004,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.21199790796772</v>
+        <v>1.216356605046873</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.781176257414317</v>
@@ -12201,7 +12093,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.24797354565684</v>
+        <v>1.260111456023367</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.867764693684567</v>
@@ -12290,7 +12182,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.249273124908335</v>
+        <v>1.257766287813338</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.968401054071754</v>
@@ -12379,7 +12271,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.273467767919285</v>
+        <v>1.286851044274364</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.976573492847467</v>
@@ -12468,7 +12360,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.283160388663247</v>
+        <v>1.293720209044975</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.033929789470283</v>
@@ -12557,7 +12449,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.295901803962449</v>
+        <v>1.302833544215263</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.835631206582593</v>
@@ -12646,7 +12538,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.268685057305658</v>
+        <v>1.275104032436576</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.854821459267282</v>
@@ -12735,7 +12627,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.279704285654682</v>
+        <v>1.28716407490416</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.845396529226326</v>
@@ -12824,7 +12716,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.280013490411642</v>
+        <v>1.28780002600974</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.820166905171173</v>
@@ -12913,7 +12805,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.26671844469403</v>
+        <v>1.276284553996559</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.857260434481051</v>
@@ -13002,7 +12894,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.272154870886368</v>
+        <v>1.282306653304638</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.806046421365276</v>
@@ -13091,7 +12983,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.298201633835699</v>
+        <v>1.310985441732578</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.778536938428153</v>
@@ -13180,7 +13072,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.303671579295494</v>
+        <v>1.314691125166384</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.799484142016012</v>
@@ -13269,7 +13161,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.302488692583646</v>
+        <v>1.313231301562667</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.802488861131782</v>
@@ -13358,7 +13250,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.304597882782673</v>
+        <v>1.317846083573447</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.888038056879691</v>
@@ -13447,7 +13339,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.317857520860581</v>
+        <v>1.333642833600638</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.776834241661133</v>
@@ -13536,7 +13428,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.317482508690171</v>
+        <v>1.332292334204134</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.79340506621898</v>
@@ -13625,7 +13517,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.332011569200436</v>
+        <v>1.346762611878561</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.717948549096546</v>
@@ -13714,7 +13606,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.331988044091689</v>
+        <v>1.34889995708148</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.722478330392681</v>
@@ -13803,7 +13695,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.331059086504483</v>
+        <v>1.347240875002128</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.758088321431617</v>
@@ -13892,7 +13784,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.337704315644602</v>
+        <v>1.355502253858453</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.690563063265044</v>
@@ -13981,7 +13873,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.417279200644612</v>
+        <v>1.442318318243337</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.11900810946567</v>
@@ -14070,7 +13962,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.375948933806541</v>
+        <v>1.396784781179682</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.079010064385306</v>
@@ -14159,7 +14051,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.374103579663242</v>
+        <v>1.397015801902892</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.072717105303518</v>
@@ -14248,7 +14140,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.411751060895278</v>
+        <v>1.436056190139609</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.091442338783101</v>
@@ -14337,7 +14229,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.427844022266712</v>
+        <v>1.449306615953824</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.13423367002651</v>
@@ -14426,7 +14318,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.432938932852388</v>
+        <v>1.455521999290966</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.071551146457922</v>
@@ -14515,7 +14407,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.428952080035808</v>
+        <v>1.453935935618429</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.140408338853486</v>
@@ -14604,7 +14496,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.432192194925104</v>
+        <v>1.457222564231836</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.047520613821876</v>
@@ -14693,7 +14585,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.431768078894389</v>
+        <v>1.452378780040049</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.098448977211607</v>
@@ -14782,7 +14674,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.419160328106556</v>
+        <v>1.437556326214391</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.116580154685892</v>
@@ -14871,7 +14763,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.419582502689315</v>
+        <v>1.433788132589218</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.052163924381945</v>
@@ -14960,7 +14852,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.416367907343467</v>
+        <v>1.433459078753861</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.063477492032224</v>
@@ -15049,7 +14941,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.408993288176175</v>
+        <v>1.424020027842275</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.076664376501425</v>
@@ -15138,7 +15030,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.360071018100419</v>
+        <v>1.316436987132978</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.543407641107303</v>
@@ -15227,7 +15119,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.273442416448138</v>
+        <v>1.283057448540661</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.552054264922551</v>
@@ -15316,7 +15208,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.265718576902297</v>
+        <v>1.275595200772343</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.557406100037467</v>
@@ -15405,7 +15297,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.286596265151793</v>
+        <v>1.2966935592001</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.557394743527428</v>
@@ -15494,7 +15386,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.276416015909086</v>
+        <v>1.283593057188833</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.552430131761248</v>
@@ -15583,7 +15475,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.276989172755454</v>
+        <v>1.284526146004381</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.551358561876555</v>
@@ -15672,7 +15564,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.266076709927621</v>
+        <v>1.273484733394701</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.544734206639624</v>
@@ -15761,7 +15653,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.253633863212375</v>
+        <v>1.260172241498068</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.558352104548842</v>
@@ -15850,7 +15742,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.253844862457815</v>
+        <v>1.25759486085908</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.557220858173157</v>
@@ -15939,7 +15831,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.246179413874401</v>
+        <v>1.248517466784913</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.562345047758954</v>
@@ -16028,7 +15920,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.249316533689758</v>
+        <v>1.256172999327408</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.56012828494931</v>
@@ -16117,7 +16009,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.260105897460334</v>
+        <v>1.267161185247379</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.563358745238127</v>
@@ -16206,7 +16098,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.261447154161587</v>
+        <v>1.26805912306287</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.562606804896408</v>
@@ -16295,7 +16187,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.26020843212534</v>
+        <v>1.264649660584634</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.567698798584618</v>
@@ -16384,7 +16276,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.260400376468795</v>
+        <v>1.265617097325356</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.575609379162474</v>
@@ -16473,7 +16365,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.330949414536293</v>
+        <v>1.344227100925649</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.65164754850017</v>
@@ -16562,7 +16454,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.364475078498528</v>
+        <v>1.37670112488404</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.172580668419055</v>
@@ -16651,7 +16543,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.378255760295341</v>
+        <v>1.385043066893391</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.297138649083586</v>
@@ -16740,7 +16632,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.393831293884439</v>
+        <v>1.397985446508697</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.332139883641953</v>
@@ -16829,7 +16721,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.419358851062538</v>
+        <v>1.420113141148833</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.444496073722723</v>
@@ -16918,7 +16810,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.401393913111679</v>
+        <v>1.409667139466223</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.47778643775712</v>
@@ -17007,7 +16899,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.422905378861108</v>
+        <v>1.43078783291707</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.656754332346855</v>
@@ -17096,7 +16988,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.445968240737053</v>
+        <v>1.456131377873487</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.545983765254746</v>
@@ -17185,7 +17077,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.44076008574413</v>
+        <v>1.448454332009278</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.333768145387035</v>
@@ -17274,7 +17166,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.44011442631091</v>
+        <v>1.449851940347483</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.655971304445053</v>
@@ -17560,7 +17452,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.47659456012682</v>
+        <v>1.498045082872451</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.191536225318511</v>
@@ -17649,7 +17541,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.472468094863715</v>
+        <v>1.491742502819874</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.108306027701741</v>
@@ -17738,7 +17630,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.487556093024312</v>
+        <v>1.505356643583905</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.193811132077058</v>
@@ -17827,7 +17719,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.492052530016447</v>
+        <v>1.514755187562612</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.250179858445746</v>
@@ -17916,7 +17808,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.502188050836924</v>
+        <v>1.526314194026104</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.104519075444731</v>
@@ -18005,7 +17897,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.523411223831929</v>
+        <v>1.545941583457145</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.24163918970937</v>
@@ -18094,7 +17986,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.518882560297763</v>
+        <v>1.538412733042084</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.189486773505455</v>
@@ -18183,7 +18075,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.521231317669904</v>
+        <v>1.535086392656895</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.067360323939374</v>
@@ -18272,7 +18164,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.513018730114364</v>
+        <v>1.5262637660837</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.198158658161443</v>
@@ -18361,7 +18253,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.518248233356469</v>
+        <v>1.529966071999569</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.229465725954546</v>
@@ -18450,7 +18342,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.523925108972283</v>
+        <v>1.532201484304857</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.156999978025434</v>
@@ -18539,7 +18431,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.522542905703945</v>
+        <v>1.526476974642386</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.121888981486627</v>
@@ -18628,7 +18520,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.522922461471548</v>
+        <v>1.528163052772606</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.121911965553246</v>
@@ -18717,7 +18609,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.574347887668053</v>
+        <v>1.564975481258939</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.612834385475317</v>
@@ -18806,7 +18698,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.584654798454304</v>
+        <v>1.575355534205449</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.557468223603478</v>
@@ -18895,7 +18787,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.594015800785831</v>
+        <v>1.581484658227267</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.60465685054986</v>
@@ -18984,7 +18876,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.592637056509754</v>
+        <v>1.574898721137456</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.539497825005972</v>
@@ -19073,7 +18965,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.604106567995002</v>
+        <v>1.580809358358201</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.167260470717835</v>
@@ -19162,7 +19054,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.627919418950441</v>
+        <v>1.597809639950432</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.02623738456913</v>
@@ -19251,7 +19143,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.630721652712824</v>
+        <v>1.600905910860946</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.998334022799508</v>
@@ -19340,7 +19232,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.619526115478482</v>
+        <v>1.585269103813519</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.78482440927421</v>
@@ -19429,7 +19321,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.629522881812921</v>
+        <v>1.584928485331663</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.668560623746406</v>
@@ -19518,7 +19410,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.634618850573637</v>
+        <v>1.589274528183561</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.774595310113817</v>
@@ -19607,7 +19499,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.647866814209927</v>
+        <v>1.596792619182084</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.842910587509635</v>
@@ -19696,7 +19588,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.617566068799845</v>
+        <v>1.581726039036761</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.893271059459871</v>
@@ -19785,7 +19677,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.616927301985007</v>
+        <v>1.583217959460187</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.911530984867471</v>
@@ -19874,7 +19766,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.631279253906945</v>
+        <v>1.601867962528174</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.909370792915103</v>
@@ -19963,7 +19855,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.632833797180815</v>
+        <v>1.604939630119819</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.975742223502088</v>
@@ -20052,7 +19944,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.63834642539032</v>
+        <v>1.6127479441876</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.914191882060372</v>
@@ -20141,7 +20033,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.587739487951565</v>
+        <v>1.570839561553501</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.557678935175473</v>
@@ -20230,7 +20122,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.585158412244389</v>
+        <v>1.567299512978179</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.531000565949733</v>
@@ -20319,7 +20211,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.590222849561448</v>
+        <v>1.573848375620091</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.420458433561665</v>
@@ -20408,7 +20300,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.588553932473131</v>
+        <v>1.573977098804948</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.518459351980016</v>
@@ -20497,7 +20389,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.588153543449549</v>
+        <v>1.573023098106568</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.487613318229668</v>
@@ -20586,7 +20478,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.590332437983261</v>
+        <v>1.574725194576815</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.555830666727628</v>
@@ -20675,7 +20567,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.608859265390258</v>
+        <v>1.595175054107984</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.455902076552372</v>
@@ -20764,7 +20656,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.592185091516626</v>
+        <v>1.575589758798749</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.363453995272526</v>
@@ -20853,7 +20745,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.560736181206203</v>
+        <v>1.564385172269529</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.456105240606163</v>
@@ -20942,7 +20834,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.560677953158549</v>
+        <v>1.568945606032195</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.334132874869332</v>
@@ -21031,7 +20923,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.578340134492961</v>
+        <v>1.582987304830543</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.44850322300056</v>
@@ -21120,7 +21012,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.564933748914926</v>
+        <v>1.572358405160652</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.413905941439245</v>
@@ -21209,7 +21101,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.562655816748061</v>
+        <v>1.568593951449918</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.486277223513376</v>
@@ -21298,7 +21190,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.559368525482934</v>
+        <v>1.562285754126369</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.383757900953225</v>
@@ -21387,7 +21279,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.558764906312569</v>
+        <v>1.559900390652028</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.363799059319008</v>
@@ -21476,7 +21368,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.603003820723636</v>
+        <v>1.597563390765089</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.408947814534051</v>
@@ -21565,7 +21457,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.587952287367183</v>
+        <v>1.588939023754278</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.483517451782862</v>
@@ -21654,7 +21546,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.582864092088864</v>
+        <v>1.586862032919854</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.464612642835598</v>
@@ -21743,7 +21635,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.571745583890766</v>
+        <v>1.57313331567611</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.45562768672697</v>
@@ -21832,7 +21724,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.567278055400871</v>
+        <v>1.569936069524991</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.359452136163338</v>
@@ -21921,7 +21813,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.571925868511145</v>
+        <v>1.573581489506758</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.45229338108183</v>
@@ -22010,7 +21902,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.570336557720863</v>
+        <v>1.575660735470291</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.328072991948971</v>
@@ -22099,7 +21991,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.59264469768237</v>
+        <v>1.593129943634126</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.460320947824501</v>
@@ -22188,7 +22080,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.617947510166355</v>
+        <v>1.610752444176435</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.97861899927402</v>
@@ -22277,7 +22169,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.617909145822483</v>
+        <v>1.604235831134097</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.960043565204131</v>
@@ -22366,7 +22258,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.632013517751518</v>
+        <v>1.618205894032818</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.818310559848703</v>
@@ -22455,7 +22347,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.647411277643064</v>
+        <v>1.630259180798091</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.721997647508024</v>
@@ -22544,7 +22436,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.646197939241614</v>
+        <v>1.631347730217366</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.857011582575005</v>
@@ -22633,7 +22525,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.657509258029028</v>
+        <v>1.645639495877921</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.015489424901701</v>
@@ -22722,7 +22614,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.654424396245981</v>
+        <v>1.641081534237358</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.753009569859768</v>
@@ -22811,7 +22703,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.65808296620211</v>
+        <v>1.64053816803468</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.505532615772315</v>
@@ -22900,7 +22792,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.656118078551568</v>
+        <v>1.642908270967089</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.824293869584911</v>
@@ -23186,7 +23078,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.54831746907711</v>
+        <v>1.542177666989387</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.604764443830096</v>
@@ -23275,7 +23167,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.530140838258892</v>
+        <v>1.528597468258296</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.538673856288567</v>
@@ -23364,7 +23256,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.538672005850669</v>
+        <v>1.535135943803876</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.544186490124619</v>
@@ -23453,7 +23345,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.543060858235304</v>
+        <v>1.54832701590054</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.555717445226836</v>
@@ -23542,7 +23434,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.54190871041961</v>
+        <v>1.542234709821118</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.552755656983819</v>
@@ -23631,7 +23523,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.550820613400952</v>
+        <v>1.547524747153071</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.607973140127167</v>
@@ -23720,7 +23612,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.54690471729018</v>
+        <v>1.537452237152851</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.603296336168663</v>
@@ -23809,7 +23701,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.546358957197956</v>
+        <v>1.534301165342973</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.596618570855455</v>
@@ -23898,7 +23790,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.531171449270676</v>
+        <v>1.519358928629763</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.518455856460875</v>
@@ -23987,7 +23879,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.526266394620371</v>
+        <v>1.515283867095967</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.55511717002467</v>
@@ -24076,7 +23968,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.523049603050199</v>
+        <v>1.514746120575113</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.574604479930843</v>
@@ -24165,7 +24057,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.521191461075907</v>
+        <v>1.513176978119449</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.593919297052794</v>
@@ -24254,7 +24146,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.531332554501074</v>
+        <v>1.522068702582083</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.39443228777194</v>
@@ -24343,7 +24235,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.558931491469447</v>
+        <v>1.541109114665642</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.659605811951093</v>
@@ -24432,7 +24324,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.573311443199906</v>
+        <v>1.552251932513546</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.841720690407351</v>
@@ -24521,7 +24413,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.571787165862728</v>
+        <v>1.552452877463638</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.784293244762747</v>
@@ -24610,7 +24502,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.585694673755432</v>
+        <v>1.565414205188896</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.844300114681742</v>
@@ -24699,7 +24591,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.597642280241</v>
+        <v>1.577380102333879</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.489325496371907</v>
@@ -24788,7 +24680,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.593515286473701</v>
+        <v>1.561941071262898</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.523952814181993</v>
@@ -24877,7 +24769,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.596028727837122</v>
+        <v>1.570508645047489</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.825880364080846</v>
@@ -24966,7 +24858,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.602366612840029</v>
+        <v>1.576509226270362</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.823327273190404</v>
@@ -25055,7 +24947,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.604668238102585</v>
+        <v>1.585500071026458</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.024923641030449</v>
@@ -25144,7 +25036,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.605265815128883</v>
+        <v>1.583347509503018</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.160827424264615</v>
@@ -25233,7 +25125,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.62101742192218</v>
+        <v>1.5960787625663</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.321918568216014</v>
@@ -25322,7 +25214,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.613691816137789</v>
+        <v>1.590307188329529</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.399909400532992</v>
@@ -25411,7 +25303,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.611443689308522</v>
+        <v>1.584908833077025</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.665847767938876</v>
@@ -25500,7 +25392,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.61374597092821</v>
+        <v>1.58978471601041</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.426165583019296</v>
@@ -25589,7 +25481,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.605230067021183</v>
+        <v>1.580440244984164</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.710270090793906</v>
@@ -25678,7 +25570,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.61047310721538</v>
+        <v>1.578189584694041</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.56496285495121</v>
@@ -25767,7 +25659,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.596984630317568</v>
+        <v>1.559786119273911</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.357738799727159</v>
@@ -25856,7 +25748,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.603221986799691</v>
+        <v>1.562338164764672</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.56132014271686</v>
@@ -25945,7 +25837,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.610609859870098</v>
+        <v>1.56564350664741</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.331091252404712</v>
@@ -26034,7 +25926,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.607942523679222</v>
+        <v>1.555661428159945</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.478822542341312</v>
@@ -26123,7 +26015,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.612613420379321</v>
+        <v>1.570512785170539</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.079423502934922</v>
@@ -26212,7 +26104,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.606979281849727</v>
+        <v>1.569639614108443</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.637609514113408</v>
@@ -26301,7 +26193,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.608591677426906</v>
+        <v>1.566803366752394</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.601768888021399</v>
@@ -26390,7 +26282,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.608466360182627</v>
+        <v>1.560053429227432</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.875903654091203</v>
@@ -26479,7 +26371,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.579755605992132</v>
+        <v>1.54334356448302</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.753225780739784</v>
@@ -26568,7 +26460,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.573631767547909</v>
+        <v>1.538040321276959</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.821436858972949</v>
@@ -26657,7 +26549,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.58609692619602</v>
+        <v>1.550432017167134</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.563056325860673</v>
@@ -26746,7 +26638,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.576059473415428</v>
+        <v>1.548418272841343</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.753460143491381</v>
@@ -26835,7 +26727,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.578132477432368</v>
+        <v>1.541408039728268</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.835167060350596</v>
@@ -26924,7 +26816,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.584106562895846</v>
+        <v>1.543545445300199</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.827507247375672</v>
@@ -27013,7 +26905,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.588295087700995</v>
+        <v>1.552099702551306</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.596748408619137</v>
@@ -27102,7 +26994,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.596263712174145</v>
+        <v>1.564809423208765</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.668244793513149</v>
@@ -27191,7 +27083,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.56909440702546</v>
+        <v>1.550790375633978</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.566490986937696</v>
@@ -27280,7 +27172,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.576670045884031</v>
+        <v>1.55771989119907</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.568770886397548</v>
@@ -27369,7 +27261,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.577222279179721</v>
+        <v>1.560196230862545</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.522553983758832</v>
@@ -27458,7 +27350,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.578596482910157</v>
+        <v>1.560269081876607</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.491162489735519</v>
@@ -27547,7 +27439,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.587450666833264</v>
+        <v>1.56155683367868</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.452033479440389</v>
@@ -27636,7 +27528,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.574982917049009</v>
+        <v>1.5511438969774</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.570910511950788</v>
@@ -27725,7 +27617,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.450764053254773</v>
+        <v>1.424668941632518</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.579577745927545</v>
@@ -27814,7 +27706,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.417526977544294</v>
+        <v>1.409322021764297</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.591197189755514</v>
@@ -27903,7 +27795,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.420903122159837</v>
+        <v>1.41399915428579</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.583794186917044</v>
@@ -27992,7 +27884,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.422900676726088</v>
+        <v>1.413950367422454</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.596440898889222</v>
@@ -28081,7 +27973,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.425167902716686</v>
+        <v>1.414735142481887</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.589459512493603</v>
@@ -28170,7 +28062,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.428148164018087</v>
+        <v>1.42196464055058</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.596486622567721</v>
@@ -28259,7 +28151,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.428477481173227</v>
+        <v>1.424342408938365</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.59601586164354</v>
@@ -28348,7 +28240,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.423311688937486</v>
+        <v>1.422049601591073</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.583242243109995</v>
@@ -28437,7 +28329,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.431474216397073</v>
+        <v>1.424488918055132</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.623333452295316</v>
@@ -28526,7 +28418,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.433987156480117</v>
+        <v>1.426271084359306</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.571758616988849</v>
@@ -28812,7 +28704,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.464518104526355</v>
+        <v>1.478047907982603</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.123987740061698</v>
@@ -28901,7 +28793,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.43284543284356</v>
+        <v>1.449003230513258</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.10453636147377</v>
@@ -28990,7 +28882,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.445260640902192</v>
+        <v>1.457379239329432</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.155390889590269</v>
@@ -29079,7 +28971,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.447966349735067</v>
+        <v>1.467301348965557</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.148882737946637</v>
@@ -29168,7 +29060,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.451311673797791</v>
+        <v>1.463694601422132</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.189763084372492</v>
@@ -29257,7 +29149,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.455460376395438</v>
+        <v>1.46814109411677</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.239116721358597</v>
@@ -29346,7 +29238,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.458815664790546</v>
+        <v>1.464282411647462</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.215242440756291</v>
@@ -29435,7 +29327,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.451310063731465</v>
+        <v>1.454759513615779</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.188430087654663</v>
@@ -29524,7 +29416,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.435541586370631</v>
+        <v>1.437345451909991</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.196401939828452</v>
@@ -29613,7 +29505,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.432022676982428</v>
+        <v>1.430360994152769</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.244821741027703</v>
@@ -29702,7 +29594,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.432053119134768</v>
+        <v>1.430075286704547</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.18941390527804</v>
@@ -29791,7 +29683,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.436780892609053</v>
+        <v>1.433013201555243</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.15710092090919</v>
@@ -29880,7 +29772,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.44692701614321</v>
+        <v>1.441580568521285</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.086556921172496</v>
@@ -29969,7 +29861,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.482661158877964</v>
+        <v>1.471406400753164</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.650627834861898</v>
@@ -30058,7 +29950,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.490321078551628</v>
+        <v>1.479252712152506</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.763813580329558</v>
@@ -30147,7 +30039,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.478510079058789</v>
+        <v>1.463638284101564</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.534666111733602</v>
@@ -30236,7 +30128,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.520037220607431</v>
+        <v>1.495844229026958</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.795249812327303</v>
@@ -30325,7 +30217,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.525257410219431</v>
+        <v>1.499438989222532</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.504834346134416</v>
@@ -30414,7 +30306,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.528512379942449</v>
+        <v>1.491377721272219</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.651307016117387</v>
@@ -30503,7 +30395,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.538151214634561</v>
+        <v>1.504159412863382</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.43986958071466</v>
@@ -30592,7 +30484,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.544716525664768</v>
+        <v>1.510161453807502</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.667825564352909</v>
@@ -30681,7 +30573,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.541301789413036</v>
+        <v>1.510138251648127</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.59994296385318</v>
@@ -30770,7 +30662,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.550777363107584</v>
+        <v>1.516973381154792</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.625626595683302</v>
@@ -30859,7 +30751,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.581848194798371</v>
+        <v>1.545784308636022</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.88990558290934</v>
@@ -30948,7 +30840,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.577234810828366</v>
+        <v>1.542645492396786</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.064442556645512</v>
@@ -31037,7 +30929,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.583308898762351</v>
+        <v>1.550853746058509</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.819331826394448</v>
@@ -31126,7 +31018,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.587124173139512</v>
+        <v>1.554266916426153</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.721476143618963</v>
@@ -31215,7 +31107,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.590350144255068</v>
+        <v>1.557985102098103</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.951466347892196</v>
@@ -31304,7 +31196,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.574556030235731</v>
+        <v>1.546379722546771</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.713711977338393</v>
@@ -31393,7 +31285,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.58370300391838</v>
+        <v>1.554774676677823</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.417701578651136</v>
@@ -31482,7 +31374,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.581385450783776</v>
+        <v>1.557971938008376</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.674756619258156</v>
@@ -31571,7 +31463,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.573713662876583</v>
+        <v>1.552083991732749</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.565744899308434</v>
@@ -31660,7 +31552,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.569438323146466</v>
+        <v>1.547639663847445</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.640811678035276</v>
@@ -31749,7 +31641,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.560574384246856</v>
+        <v>1.545311493059319</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.489160277466212</v>
@@ -31838,7 +31730,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.546731765682478</v>
+        <v>1.537199049976763</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.616332273835681</v>
@@ -31927,7 +31819,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.537457094088777</v>
+        <v>1.529251093957356</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.616854090117636</v>
@@ -32016,7 +31908,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.528740244841279</v>
+        <v>1.515759255719655</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.572131680636103</v>
@@ -32105,7 +31997,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.498374703202528</v>
+        <v>1.495815284128131</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.570053920394804</v>
@@ -32194,7 +32086,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.477753556435988</v>
+        <v>1.473199171852119</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.586377539780893</v>
@@ -32283,7 +32175,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.477078513220304</v>
+        <v>1.476334482972747</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.560611667357096</v>
@@ -32372,7 +32264,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.465805690924299</v>
+        <v>1.467342183337098</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.395186309057608</v>
@@ -32461,7 +32353,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.466202085870513</v>
+        <v>1.467184308529538</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.466221828671341</v>
@@ -32550,7 +32442,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.451725740656048</v>
+        <v>1.452912284970382</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.479019134421414</v>
@@ -32639,7 +32531,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.462527877626801</v>
+        <v>1.455755908969801</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.384236286355419</v>
@@ -32728,7 +32620,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.47231140595358</v>
+        <v>1.457635534531623</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.590089582429165</v>
@@ -32817,7 +32709,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.45586660103452</v>
+        <v>1.444398956392351</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.322515119994399</v>
@@ -32906,7 +32798,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.460177564638216</v>
+        <v>1.446314896591935</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.389512239445038</v>
@@ -32995,7 +32887,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.458290588839353</v>
+        <v>1.44868754365585</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.354636991091175</v>
@@ -33084,7 +32976,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.475111695917133</v>
+        <v>1.466707917559246</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.410484858921214</v>
@@ -33173,7 +33065,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.476095027851975</v>
+        <v>1.466710363587714</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.303557371737978</v>
@@ -33262,7 +33154,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.463273488444376</v>
+        <v>1.461631284958786</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.347389221038351</v>
@@ -33351,7 +33243,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.4872669538794</v>
+        <v>1.486540746610689</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.276340230781451</v>
@@ -33440,7 +33332,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.502170423336106</v>
+        <v>1.49896592190284</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.351189703712533</v>
@@ -33529,7 +33421,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.514473747349646</v>
+        <v>1.517549318855041</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.373089049664253</v>
@@ -33618,7 +33510,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.517389302016524</v>
+        <v>1.516400159551666</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.250852010140339</v>
@@ -33707,7 +33599,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.531823653198031</v>
+        <v>1.531230062213541</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.312856818960962</v>
@@ -33796,7 +33688,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.535990834936921</v>
+        <v>1.535726698309117</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.464766640035501</v>
@@ -33885,7 +33777,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.552601524517316</v>
+        <v>1.554257065815739</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.408893695548844</v>
@@ -33974,7 +33866,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.568498361923733</v>
+        <v>1.578099959673976</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.520262653450004</v>
@@ -34063,7 +33955,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.573836453723978</v>
+        <v>1.574465768732355</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.135962201961801</v>
@@ -34152,7 +34044,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.582616898224578</v>
+        <v>1.592330163644598</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.643877359179695</v>
@@ -34438,7 +34330,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.25031951985824</v>
+        <v>1.256350573677176</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.104859898573756</v>
@@ -34527,7 +34419,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.253160232468318</v>
+        <v>1.256541593118879</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.094168585525171</v>
@@ -34616,7 +34508,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.267815707727078</v>
+        <v>1.273696798286256</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.998899684364678</v>
@@ -34705,7 +34597,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.27161749181977</v>
+        <v>1.284758848907602</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.104565350151101</v>
@@ -34794,7 +34686,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.253278973908201</v>
+        <v>1.25864596274086</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.040542353982409</v>
@@ -34883,7 +34775,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.243191569517438</v>
+        <v>1.256982539332731</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.124533717177457</v>
@@ -34972,7 +34864,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.249620596096432</v>
+        <v>1.261653187511888</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.102182380754753</v>
@@ -35061,7 +34953,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.250524518389885</v>
+        <v>1.260614309345389</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.09433406774631</v>
@@ -35150,7 +35042,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.253912243452851</v>
+        <v>1.26513647375243</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.126891094543819</v>
@@ -35239,7 +35131,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.25049723346462</v>
+        <v>1.257733325432344</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.144142007727137</v>
@@ -35328,7 +35220,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.250046033189976</v>
+        <v>1.259990917407246</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.128817234200563</v>
@@ -35417,7 +35309,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.255701191513578</v>
+        <v>1.264079930844214</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.138001187602864</v>
@@ -35506,7 +35398,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.287074718984258</v>
+        <v>1.297118377156225</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.154339834615056</v>
@@ -35595,7 +35487,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.287320304530186</v>
+        <v>1.29431569910756</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.084963754881589</v>
@@ -35684,7 +35576,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.296108247016313</v>
+        <v>1.305426245872889</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.216808787353711</v>
@@ -35773,7 +35665,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.291828133798262</v>
+        <v>1.298183197251191</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.154991213315863</v>
@@ -35862,7 +35754,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.275539852924893</v>
+        <v>1.285790066562324</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.284085294004176</v>
@@ -35951,7 +35843,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.283974262854127</v>
+        <v>1.293283052172439</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.129116200847562</v>
@@ -36040,7 +35932,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.265172649891276</v>
+        <v>1.268495084200403</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.166294186461391</v>
@@ -36129,7 +36021,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.297247052224435</v>
+        <v>1.301565177001368</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.022949181986693</v>
@@ -36218,7 +36110,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.308633118147491</v>
+        <v>1.31374894229244</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.145711292597419</v>
@@ -36307,7 +36199,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.311366162358769</v>
+        <v>1.319066113164789</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.111270166953419</v>
@@ -36396,7 +36288,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.30935917546084</v>
+        <v>1.316458472938732</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.167226876191823</v>
@@ -36485,7 +36377,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.290084831885131</v>
+        <v>1.295886808405483</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.138540153549639</v>
@@ -36574,7 +36466,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.297798615294398</v>
+        <v>1.300380061420601</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.090716651662297</v>
@@ -36663,7 +36555,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.289816391016261</v>
+        <v>1.292064461027916</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.037067553854706</v>
@@ -36752,7 +36644,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.288076526838831</v>
+        <v>1.293868634134984</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.09892369094684</v>
@@ -36841,7 +36733,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.284255080899426</v>
+        <v>1.290122423844551</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.040301044844715</v>
@@ -36930,7 +36822,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.311177125787677</v>
+        <v>1.318165789578109</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.060963725792532</v>
@@ -37019,7 +36911,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.305819015180224</v>
+        <v>1.313657049284677</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.036298683302627</v>
@@ -37108,7 +37000,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.311815239310007</v>
+        <v>1.318900207936367</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.106737597383386</v>
@@ -37197,7 +37089,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.335130980237428</v>
+        <v>1.341124670944837</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.148440151147009</v>
@@ -37286,7 +37178,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.331867058081807</v>
+        <v>1.337598462533535</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.03731950080788</v>
@@ -37375,7 +37267,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.339106896613182</v>
+        <v>1.344890728847529</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.065168664505417</v>
@@ -37464,7 +37356,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.342803718888434</v>
+        <v>1.349918101061101</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.082924628590241</v>
@@ -37553,7 +37445,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.338320572334264</v>
+        <v>1.349125699085961</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.1256346413351</v>
@@ -37642,7 +37534,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.334508357024512</v>
+        <v>1.340804855386182</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.149465438049892</v>
@@ -37731,7 +37623,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.297819615397349</v>
+        <v>1.304386410545759</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.170305156699523</v>
@@ -37820,7 +37712,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.300700571016799</v>
+        <v>1.304556985471697</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.029589382474491</v>
@@ -37909,7 +37801,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.282969161671363</v>
+        <v>1.293348035171238</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.139422241735139</v>
@@ -37998,7 +37890,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.252548568879748</v>
+        <v>1.264793432311772</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.14538867784926</v>
@@ -38087,7 +37979,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.237125634104319</v>
+        <v>1.244249642195549</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.169749321081292</v>
@@ -38176,7 +38068,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.234596268957619</v>
+        <v>1.242155989571908</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.206413591406121</v>
@@ -38265,7 +38157,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.207221328231517</v>
+        <v>1.210764116733061</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.14929211061134</v>
@@ -38354,7 +38246,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.211828075955052</v>
+        <v>1.21421479482878</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.138188370893875</v>
@@ -38443,7 +38335,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.202406148166653</v>
+        <v>1.203636182400996</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.163502498201731</v>
@@ -38532,7 +38424,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.195075767713134</v>
+        <v>1.197353369232381</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.175436375647804</v>
@@ -38621,7 +38513,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.192024566775715</v>
+        <v>1.188568858858272</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.205720519424018</v>
@@ -38710,7 +38602,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.189012609777659</v>
+        <v>1.187279545849773</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.133560361989328</v>
@@ -38799,7 +38691,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.190745889361124</v>
+        <v>1.187930812844233</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.099196869757271</v>
@@ -38888,7 +38780,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.187466458633308</v>
+        <v>1.182650243447185</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.238236151870061</v>
@@ -38977,7 +38869,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.168562240329026</v>
+        <v>1.161875610747169</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.120832455090285</v>
@@ -39066,7 +38958,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.181901970811935</v>
+        <v>1.178857588765153</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.027592926648032</v>
@@ -39155,7 +39047,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.20035858232072</v>
+        <v>1.198700138202777</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.975756000226737</v>
@@ -39244,7 +39136,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.218874082293701</v>
+        <v>1.214821959643843</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.040773240303739</v>
@@ -39333,7 +39225,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.237456234914329</v>
+        <v>1.235901869522543</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.111893004975295</v>
@@ -39422,7 +39314,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.248390137207535</v>
+        <v>1.249701006131098</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.017558468288652</v>
@@ -39511,7 +39403,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.260282276802877</v>
+        <v>1.258290896286245</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.99359479903275</v>
@@ -39600,7 +39492,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.258972063944068</v>
+        <v>1.261918379878455</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.991736113417074</v>
@@ -39689,7 +39581,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.241719116304114</v>
+        <v>1.242155977339167</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.11172764839636</v>
@@ -39778,7 +39670,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.239408147344971</v>
+        <v>1.232678783725146</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.965250541808372</v>
